--- a/medicine/Sexualité et sexologie/Bibliographie_sur_les_études_de_genre/Bibliographie_sur_les_études_de_genre.xlsx
+++ b/medicine/Sexualité et sexologie/Bibliographie_sur_les_études_de_genre/Bibliographie_sur_les_études_de_genre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bibliographie_sur_les_%C3%A9tudes_de_genre</t>
+          <t>Bibliographie_sur_les_études_de_genre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous figure une liste d'œuvres consacrées aux études de genre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bibliographie_sur_les_%C3%A9tudes_de_genre</t>
+          <t>Bibliographie_sur_les_études_de_genre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>En langue française
-Leo Bersani, Le rectum est-il une tombe ?, Paris, EPEL, 1998
+          <t>En langue française</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Leo Bersani, Le rectum est-il une tombe ?, Paris, EPEL, 1998
 Leo Bersani, Homos. Repenser l'identité, Paris, Odile Jacob, 1998
 Marie-Joseph Bertini, Ni d'Ève ni d'Adam, défaire la différence des sexes, Paris, Max Milo, 2009 (présentation en ligne)
 Marie-Hélène Bourcier, Queer zones, Paris, Balland, 2001
@@ -564,9 +581,43 @@
 Monique Wittig, Les Guérillères, Paris, Les Éditions de Minuit, 1969
 Monique Wittig, Le Corps lesbien, Paris, Les Éditions de Minuit, 1973
 Monique Wittig, La Pensée straight, Paris, Balland, 2001
-Monique Wittig, Le Voyage sans fin : spectacle conçu et écrit à partir du "Quichotte" de Cervantes = The constant journey, Malakoff, Distique, coll. « Vlasta » (no 4), 1985
-En langue anglaise
-(en) Teresa de Lauretis, Technologies of Gender, Indiana University Press, 1984
+Monique Wittig, Le Voyage sans fin : spectacle conçu et écrit à partir du "Quichotte" de Cervantes = The constant journey, Malakoff, Distique, coll. « Vlasta » (no 4), 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_les_études_de_genre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_%C3%A9tudes_de_genre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En langue anglaise</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Teresa de Lauretis, Technologies of Gender, Indiana University Press, 1984
 (en) Donna Haraway, Primate Visions, Londres, Routledge, 1989
 (en) Donna Haraway, Simians, Cyborgs, and Women : The Reinvention of Nature, Londres, Routledge, 1991
 (en) Donna Haraway, Modest_Witness@Second_Millenium : FemaleMan_Meets_OncoMouse: Feminism and Technoscience, Londres, Routledge, 1995
@@ -585,44 +636,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bibliographie_sur_les_%C3%A9tudes_de_genre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_%C3%A9tudes_de_genre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Revues</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cahiers du GRIF (numéros en ligne en 2012 avec Persée, soit 1865 contributions, 1973-1997) sont une revue transdisciplinaire dont chaque numéro est thématique et concerne le rapport au monde appréhendé du point de vue des femmes ou du genre (parenté, politique, amour, sexualité, savoir, travail, a création, etc.). La revue accompagne et soutient la pensée féministe jusqu’à sa relative institutionnalisation dans le cadre des « études de genre ». 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bibliographie_sur_les_%C3%A9tudes_de_genre</t>
+          <t>Bibliographie_sur_les_études_de_genre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -637,10 +657,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cahiers du GRIF (numéros en ligne en 2012 avec Persée, soit 1865 contributions, 1973-1997) sont une revue transdisciplinaire dont chaque numéro est thématique et concerne le rapport au monde appréhendé du point de vue des femmes ou du genre (parenté, politique, amour, sexualité, savoir, travail, a création, etc.). La revue accompagne et soutient la pensée féministe jusqu’à sa relative institutionnalisation dans le cadre des « études de genre ». 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_les_études_de_genre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_%C3%A9tudes_de_genre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications dans des revues</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>M. Akrich, D. Chabaud-Rychter et D. Gardey, « Politiques de la représentation et de l’identité. Recherches en gender, cultural, queer studies », Cahiers du Genre, Paris, L'Harmatan, no 38,‎ 2005
 Marie-Hélène Bourcier, « Cultural studies et politiques de la discipline : talk dirty to me ! », Multitudes,‎ 28 janvier 2004 (lire en ligne)
